--- a/results/I3_N5_M3_T15_C100_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1845.706596348178</v>
+        <v>163.1550089908195</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.92399021724839</v>
+        <v>25.15500899081956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.344651296634344</v>
+        <v>0.5023544565344276</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8372574275573794</v>
+        <v>0.5023544565344276</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1403.960000000006</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.3300000000001</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,31 +609,9 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -813,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -929,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.43123270582125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -945,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.122498527679113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12.57904977333279</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.063586761649661</v>
+        <v>12.94108823397055</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.83692585281499</v>
+        <v>13.56876729417876</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.42095022666721</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>13.77834566152793</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,13 +1009,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1045,13 +1023,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1059,113 +1037,15 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>210.8849999999998</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7699999999998</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>243.2649999999998</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>239.2249999999998</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>235.9599999999998</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999934</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>142.7099999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>157.6399999999991</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>167.4249999999991</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>162.3149999999991</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>160.1099999999991</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>101.3750000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>103.0400000000008</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>103.9250000000008</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>105.4350000000008</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>105.7050000000008</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>108.515</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>106.645</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>103.745</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>100.49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>210.8849999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>233.7699999999998</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>243.2649999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>239.2249999999998</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>235.9599999999998</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.375000000000796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.040000000000802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.925000000000807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.435000000000798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.705000000000794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.515000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.645000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.744999999999997</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.490000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1854,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>110.8849999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1865,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>133.7699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1876,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>143.2649999999998</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1887,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>139.2249999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1898,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>135.9599999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2130,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2141,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2152,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2163,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,10 +2174,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2305,10 +2185,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2316,144 +2196,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
